--- a/df.xlsx
+++ b/df.xlsx
@@ -46,7 +46,7 @@
     <t>15%</t>
   </si>
   <si>
-    <t>por framingham</t>
+    <t>framingham</t>
   </si>
 </sst>
 </file>
